--- a/EVENTS.xlsx
+++ b/EVENTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmelie/Documents/GitHub/EV_Masters_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\EV_Masters_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0E72B9-8F24-F740-85C2-387320F6F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D4563-5586-4725-AAB5-9A186682E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>Sorry!</t>
   </si>
   <si>
-    <t>It seems I have made a mistake! Even though I am an intelligent energy system, I have accidentally sold some energy prematurely. We need one more energy stored in the community battery at the end of this round to make up for this mistake.</t>
-  </si>
-  <si>
     <t>Heat wave!</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>Ice cream fun!</t>
   </si>
   <si>
-    <t>It is the perfect weather for ice cream and many citizens in Energy City have taken to spending time outside. This means that the community battery will need 2 less energy this round, because we do not need to turn on the air conditions.</t>
-  </si>
-  <si>
     <t>Community member in need!</t>
   </si>
   <si>
@@ -88,12 +82,6 @@
     <t>There has been a gas leak at Sunny Side Elementary School! In order to take care of this as quickly as possible, the community battery requires 5 additional energy stored in it at the end of this round. With this energy we will quickly clean out Sunny Side Elementary School with no citizens harmed.</t>
   </si>
   <si>
-    <t>Another mistake!</t>
-  </si>
-  <si>
-    <t>I have unfortunately made another mistake! I have sold some energy prematurely, and our community battery requires three more energy stored in it at the end of this round to make up for this. Perhaps we should upgrade me to CoDI-3?</t>
-  </si>
-  <si>
     <t>New Year, new injuries!</t>
   </si>
   <si>
@@ -182,6 +170,18 @@
   </si>
   <si>
     <t>A success for PlexCorp</t>
+  </si>
+  <si>
+    <t>There has been a mistake!</t>
+  </si>
+  <si>
+    <t>It seems I have made a mistake! Even though I am an intelligent energy system, I have accidentally sold some energy prematurely. We need 1 more energy stored in the community battery at the end of this round to make up for this mistake.</t>
+  </si>
+  <si>
+    <t>It is the perfect weather for ice cream and many citizens in Energy City have taken to spending time outside. This means that the community battery will need 2 less energy this round, because we do not need to turn on the air conditioning.</t>
+  </si>
+  <si>
+    <t>I have unfortunately made a mistake! I have sold some energy prematurely, and our community battery requires 3 more energy stored in it at the end of this round to make up for this. Perhaps we should upgrade me to CoDI-3?</t>
   </si>
 </sst>
 </file>
@@ -466,16 +466,16 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="231.5" customWidth="1"/>
-    <col min="4" max="4" width="79.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="231.44140625" customWidth="1"/>
+    <col min="4" max="4" width="79.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1">
         <v>-4</v>
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1">
         <v>-5</v>
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1">
         <v>-1</v>
@@ -566,13 +566,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>-3</v>
@@ -586,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -606,13 +606,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>-5</v>
@@ -666,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>-3</v>
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>-4</v>
@@ -706,13 +706,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1">
         <v>-3</v>
@@ -726,13 +726,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -746,13 +746,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>-2</v>
@@ -766,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1">
         <v>-2</v>
@@ -806,13 +806,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>

--- a/EVENTS.xlsx
+++ b/EVENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\EV_Masters_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D4563-5586-4725-AAB5-9A186682E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD211A53-ED58-4BF4-9F5F-42B03CB7E8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>There has been an unexpected blizzard in Energy City! Now, we need 4 more energy units stored in the community battery at the end of this round, because we were not prepared for such cold temperatures in the spring.</t>
   </si>
   <si>
-    <t>Allergies in Energy city!</t>
-  </si>
-  <si>
     <t>We are experiencing an allergy outbreak in Energy City! This means our healthcare workers have to take care of many more patients. Lake May Hospital requires 5 more energy units stored in the community battery at the end of this round, to make sure we have enough energy for all hospital rooms.</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>I have unfortunately made a mistake! I have sold some energy prematurely, and our community battery requires 3 more energy stored in it at the end of this round to make up for this. Perhaps we should upgrade me to CoDI-3?</t>
+  </si>
+  <si>
+    <t>Allergies in Energy City!</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
         <v>-4</v>
@@ -526,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1">
         <v>-5</v>
@@ -546,13 +546,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1">
         <v>-1</v>
@@ -566,13 +566,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
         <v>-3</v>
@@ -586,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -606,13 +606,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -646,13 +646,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1">
         <v>-5</v>
@@ -666,13 +666,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1">
         <v>-3</v>
@@ -686,13 +686,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1">
         <v>-4</v>
@@ -706,13 +706,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1">
         <v>-3</v>
@@ -726,13 +726,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -746,13 +746,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>-2</v>
@@ -766,13 +766,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1">
         <v>-2</v>
@@ -806,13 +806,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
